--- a/Data/EUDA/Cannabis_detaille/compo_menages_hommes.xlsx
+++ b/Data/EUDA/Cannabis_detaille/compo_menages_hommes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,50 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Year of Treatment</t>
+          <t>Alone</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Alone</t>
+          <t>With the family of origin (parents, etc.)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>With the family of origin (parents, etc.)</t>
+          <t>With partner / children</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>With partner / children</t>
+          <t>With friends or other people (with no family relation)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>With friends or other people (with no family relation)</t>
+          <t>In detention</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>In detention</t>
+          <t>In institutions /shelters (not detention)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>In institutions /shelters (not detention)</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Not known / missing</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Not known / missing</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -497,33 +492,30 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2022</v>
+        <v>267</v>
       </c>
       <c r="C2" t="n">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="D2" t="n">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="E2" t="n">
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="F2" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G2" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H2" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="I2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
         <v>900</v>
       </c>
     </row>
@@ -534,33 +526,30 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2022</v>
+        <v>762</v>
       </c>
       <c r="C3" t="n">
-        <v>762</v>
+        <v>1132</v>
       </c>
       <c r="D3" t="n">
-        <v>1132</v>
+        <v>452</v>
       </c>
       <c r="E3" t="n">
-        <v>452</v>
+        <v>103</v>
       </c>
       <c r="F3" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G3" t="n">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H3" t="n">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="I3" t="n">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="J3" t="n">
-        <v>89</v>
-      </c>
-      <c r="K3" t="n">
         <v>2786</v>
       </c>
     </row>
@@ -571,33 +560,30 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" t="n">
         <v>78</v>
       </c>
     </row>
@@ -608,29 +594,26 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2022</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="D5" t="n">
-        <v>280</v>
+        <v>36</v>
       </c>
       <c r="E5" t="n">
-        <v>36</v>
-      </c>
-      <c r="F5" t="n">
         <v>5</v>
       </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>33</v>
+      </c>
       <c r="I5" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
         <v>398</v>
       </c>
     </row>
@@ -641,31 +624,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2022</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="D6" t="n">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>33</v>
+      </c>
+      <c r="I6" t="n">
         <v>4</v>
       </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>33</v>
-      </c>
       <c r="J6" t="n">
-        <v>4</v>
-      </c>
-      <c r="K6" t="n">
         <v>288</v>
       </c>
     </row>
@@ -676,33 +656,30 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2020</v>
+        <v>89</v>
       </c>
       <c r="C7" t="n">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="D7" t="n">
-        <v>227</v>
+        <v>66</v>
       </c>
       <c r="E7" t="n">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="F7" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G7" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H7" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>360</v>
       </c>
       <c r="J7" t="n">
-        <v>360</v>
-      </c>
-      <c r="K7" t="n">
         <v>816</v>
       </c>
     </row>
@@ -713,33 +690,30 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2022</v>
+        <v>1054</v>
       </c>
       <c r="C8" t="n">
-        <v>1054</v>
+        <v>508</v>
       </c>
       <c r="D8" t="n">
-        <v>508</v>
+        <v>391</v>
       </c>
       <c r="E8" t="n">
-        <v>391</v>
+        <v>127</v>
       </c>
       <c r="F8" t="n">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I8" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="J8" t="n">
-        <v>66</v>
-      </c>
-      <c r="K8" t="n">
         <v>2191</v>
       </c>
     </row>
@@ -750,27 +724,24 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2022</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
         <v>6</v>
       </c>
-      <c r="E9" t="n">
-        <v>6</v>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
         <v>2</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
         <v>23</v>
       </c>
     </row>
@@ -781,16 +752,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2021</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
         <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -802,12 +773,9 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
         <v>45</v>
       </c>
     </row>
@@ -818,33 +786,30 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2020</v>
+        <v>3425</v>
       </c>
       <c r="C11" t="n">
-        <v>3425</v>
+        <v>6650</v>
       </c>
       <c r="D11" t="n">
-        <v>6650</v>
+        <v>3716</v>
       </c>
       <c r="E11" t="n">
-        <v>3716</v>
+        <v>468</v>
       </c>
       <c r="F11" t="n">
-        <v>468</v>
+        <v>757</v>
       </c>
       <c r="G11" t="n">
-        <v>757</v>
+        <v>479</v>
       </c>
       <c r="H11" t="n">
-        <v>479</v>
+        <v>1221</v>
       </c>
       <c r="I11" t="n">
-        <v>1221</v>
+        <v>1244</v>
       </c>
       <c r="J11" t="n">
-        <v>1244</v>
-      </c>
-      <c r="K11" t="n">
         <v>17960</v>
       </c>
     </row>
@@ -855,27 +820,24 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2022</v>
+        <v>5591</v>
       </c>
       <c r="C12" t="n">
-        <v>5591</v>
+        <v>6996</v>
       </c>
       <c r="D12" t="n">
-        <v>6996</v>
+        <v>4078</v>
       </c>
       <c r="E12" t="n">
-        <v>4078</v>
-      </c>
-      <c r="F12" t="n">
         <v>3368</v>
       </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>1063</v>
+      </c>
       <c r="J12" t="n">
-        <v>1063</v>
-      </c>
-      <c r="K12" t="n">
         <v>19066</v>
       </c>
     </row>
@@ -886,33 +848,30 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2022</v>
+        <v>160</v>
       </c>
       <c r="C13" t="n">
-        <v>160</v>
+        <v>408</v>
       </c>
       <c r="D13" t="n">
-        <v>408</v>
+        <v>109</v>
       </c>
       <c r="E13" t="n">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="F13" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>64</v>
+      </c>
+      <c r="I13" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>64</v>
-      </c>
       <c r="J13" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" t="n">
         <v>775</v>
       </c>
     </row>
@@ -923,33 +882,30 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2022</v>
+        <v>503</v>
       </c>
       <c r="C14" t="n">
-        <v>503</v>
+        <v>899</v>
       </c>
       <c r="D14" t="n">
-        <v>899</v>
+        <v>664</v>
       </c>
       <c r="E14" t="n">
-        <v>664</v>
+        <v>72</v>
       </c>
       <c r="F14" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="I14" t="n">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="J14" t="n">
-        <v>33</v>
-      </c>
-      <c r="K14" t="n">
         <v>2376</v>
       </c>
     </row>
@@ -960,33 +916,30 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2022</v>
+        <v>147</v>
       </c>
       <c r="C15" t="n">
-        <v>147</v>
+        <v>993</v>
       </c>
       <c r="D15" t="n">
-        <v>993</v>
+        <v>225</v>
       </c>
       <c r="E15" t="n">
-        <v>225</v>
+        <v>54</v>
       </c>
       <c r="F15" t="n">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="G15" t="n">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="H15" t="n">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="I15" t="n">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="J15" t="n">
-        <v>19</v>
-      </c>
-      <c r="K15" t="n">
         <v>1650</v>
       </c>
     </row>
@@ -997,33 +950,30 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2022</v>
+        <v>420</v>
       </c>
       <c r="C16" t="n">
-        <v>420</v>
+        <v>2390</v>
       </c>
       <c r="D16" t="n">
-        <v>2390</v>
+        <v>536</v>
       </c>
       <c r="E16" t="n">
-        <v>536</v>
+        <v>108</v>
       </c>
       <c r="F16" t="n">
-        <v>108</v>
+        <v>279</v>
       </c>
       <c r="G16" t="n">
-        <v>279</v>
+        <v>87</v>
       </c>
       <c r="H16" t="n">
-        <v>87</v>
+        <v>369</v>
       </c>
       <c r="I16" t="n">
-        <v>369</v>
+        <v>2425</v>
       </c>
       <c r="J16" t="n">
-        <v>2425</v>
-      </c>
-      <c r="K16" t="n">
         <v>6614</v>
       </c>
     </row>
@@ -1034,33 +984,30 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2022</v>
+        <v>14</v>
       </c>
       <c r="C17" t="n">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="D17" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="J17" t="n">
-        <v>76</v>
-      </c>
-      <c r="K17" t="n">
         <v>197</v>
       </c>
     </row>
@@ -1071,23 +1018,20 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2022</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>12</v>
-      </c>
-      <c r="E18" t="n">
         <v>4</v>
       </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
+      <c r="J18" t="n">
         <v>19</v>
       </c>
     </row>
@@ -1098,25 +1042,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2022</v>
+        <v>26</v>
       </c>
       <c r="C19" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D19" t="n">
-        <v>50</v>
-      </c>
-      <c r="E19" t="n">
         <v>4</v>
       </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
+      <c r="G19" t="n">
         <v>9</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
+      <c r="J19" t="n">
         <v>89</v>
       </c>
     </row>
@@ -1127,33 +1068,30 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2022</v>
+        <v>39</v>
       </c>
       <c r="C20" t="n">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="D20" t="n">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="E20" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
-      </c>
-      <c r="K20" t="n">
         <v>197</v>
       </c>
     </row>
@@ -1164,33 +1102,30 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2015</v>
+        <v>1246</v>
       </c>
       <c r="C21" t="n">
-        <v>1246</v>
+        <v>780</v>
       </c>
       <c r="D21" t="n">
-        <v>780</v>
+        <v>574</v>
       </c>
       <c r="E21" t="n">
-        <v>574</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="H21" t="n">
-        <v>96</v>
+        <v>282</v>
       </c>
       <c r="I21" t="n">
-        <v>282</v>
+        <v>1202</v>
       </c>
       <c r="J21" t="n">
-        <v>1202</v>
-      </c>
-      <c r="K21" t="n">
         <v>4180</v>
       </c>
     </row>
@@ -1209,7 +1144,6 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1218,31 +1152,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2022</v>
+        <v>135</v>
       </c>
       <c r="C23" t="n">
-        <v>135</v>
+        <v>617</v>
       </c>
       <c r="D23" t="n">
-        <v>617</v>
+        <v>110</v>
       </c>
       <c r="E23" t="n">
-        <v>110</v>
-      </c>
-      <c r="F23" t="n">
         <v>16</v>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>31</v>
+      </c>
       <c r="H23" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I23" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="J23" t="n">
-        <v>11</v>
-      </c>
-      <c r="K23" t="n">
         <v>946</v>
       </c>
     </row>
@@ -1253,31 +1184,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2022</v>
+        <v>147</v>
       </c>
       <c r="C24" t="n">
-        <v>147</v>
+        <v>479</v>
       </c>
       <c r="D24" t="n">
-        <v>479</v>
+        <v>208</v>
       </c>
       <c r="E24" t="n">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="F24" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G24" t="n">
-        <v>21</v>
-      </c>
-      <c r="H24" t="n">
         <v>24</v>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>146</v>
+      </c>
       <c r="J24" t="n">
-        <v>146</v>
-      </c>
-      <c r="K24" t="n">
         <v>1039</v>
       </c>
     </row>
@@ -1288,33 +1216,30 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022</v>
+        <v>284</v>
       </c>
       <c r="C25" t="n">
-        <v>284</v>
+        <v>976</v>
       </c>
       <c r="D25" t="n">
-        <v>976</v>
+        <v>308</v>
       </c>
       <c r="E25" t="n">
-        <v>308</v>
+        <v>57</v>
       </c>
       <c r="F25" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G25" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="H25" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I25" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="J25" t="n">
-        <v>18</v>
-      </c>
-      <c r="K25" t="n">
         <v>1761</v>
       </c>
     </row>
@@ -1325,31 +1250,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2022</v>
+        <v>37</v>
       </c>
       <c r="C26" t="n">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="D26" t="n">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="E26" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
-      </c>
-      <c r="G26" t="n">
         <v>165</v>
       </c>
-      <c r="H26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>25</v>
+      </c>
       <c r="I26" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
-        <v>7</v>
-      </c>
-      <c r="K26" t="n">
         <v>459</v>
       </c>
     </row>
@@ -1360,10 +1282,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2022</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1384,9 +1306,6 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1397,33 +1316,30 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2021</v>
+        <v>1058</v>
       </c>
       <c r="C28" t="n">
-        <v>1058</v>
+        <v>4948</v>
       </c>
       <c r="D28" t="n">
-        <v>4948</v>
+        <v>1929</v>
       </c>
       <c r="E28" t="n">
-        <v>1929</v>
+        <v>330</v>
       </c>
       <c r="F28" t="n">
-        <v>330</v>
+        <v>381</v>
       </c>
       <c r="G28" t="n">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="H28" t="n">
-        <v>399</v>
+        <v>328</v>
       </c>
       <c r="I28" t="n">
-        <v>328</v>
+        <v>264</v>
       </c>
       <c r="J28" t="n">
-        <v>264</v>
-      </c>
-      <c r="K28" t="n">
         <v>9637</v>
       </c>
     </row>
@@ -1434,33 +1350,30 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2022</v>
+        <v>16</v>
       </c>
       <c r="C29" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>3</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
         <v>33</v>
       </c>
     </row>
@@ -1471,33 +1384,30 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2022</v>
+        <v>97</v>
       </c>
       <c r="C30" t="n">
-        <v>97</v>
+        <v>538</v>
       </c>
       <c r="D30" t="n">
-        <v>538</v>
+        <v>227</v>
       </c>
       <c r="E30" t="n">
-        <v>227</v>
+        <v>5</v>
       </c>
       <c r="F30" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" t="n">
         <v>5</v>
       </c>
-      <c r="G30" t="n">
-        <v>3</v>
-      </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
         <v>881</v>
       </c>
     </row>
@@ -1512,7 +1422,6 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1529,7 +1438,6 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1546,7 +1454,6 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1563,7 +1470,6 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
